--- a/biology/Origine et évolution du vivant/Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine/Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine.xlsx
+++ b/biology/Origine et évolution du vivant/Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine/Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_de_la_faune_et_de_la_flore_sous-marine</t>
+          <t>Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce guide phylogénétique illustré de la faune et de la flore sous-marine permet, pour l'ensemble des groupes faunistiques et floristiques sous-marins, d'accéder directement aux images entreposées sur le site de Wikimedia Commons (base de données photographique et, comme Wikipédia, co-projet de Wikimedia). L'accès peut se faire soit de manière simplifiée vers les principaux grands groupes, soit de façon plus ciblée via un arbre phylogénétique. Cet arbre est tiré de l'ouvrage de Lecointre : Classification phylogénétique du vivant. Pour un arbre phylogénétique plus détaillé, voir l'arbre phylogénétique de wikipédia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_de_la_faune_et_de_la_flore_sous-marine</t>
+          <t>Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accès simplifié et direct aux grands groupes
+          <t>Accès simplifié et direct aux grands groupes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Algues brunes
 			Algues rouges
 			Algues vertes
@@ -533,7 +551,47 @@
 			Tortues
 			Phoques, Otaries
 			Lamantin, dugong
-Quelques groupes de poissons osseux...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Guides phylogénétiques illustrés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Accès simplifié et direct aux grands groupes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Quelques groupes de poissons osseux...</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Blennies
 			Carpes, barbeaux
 			Chirurgiens
@@ -548,8 +606,43 @@
 			Poisson-perroquets
 			Rascasses
 			Saumons, truites
-Accès par l'arbre phylogénétique détaillé
-Les liens de l'arbre phylogénétique (colonne de gauche) mènent aux articles correspondant de wikipédia. Ceux de la colonne de droite mènent aux pages Wikimedia Commons. Dans l'arbre phylogénétique, les groupes éteints n'ont pas été représentés. La classification phylogénétique étant en perpétuelle évolution, certains termes peuvent varier entre wikimedia commons et wikipédia. Une mise à jour permanente est nécessaire...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Guides phylogénétiques illustrés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accès par l'arbre phylogénétique détaillé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les liens de l'arbre phylogénétique (colonne de gauche) mènent aux articles correspondant de wikipédia. Ceux de la colonne de droite mènent aux pages Wikimedia Commons. Dans l'arbre phylogénétique, les groupes éteints n'ont pas été représentés. La classification phylogénétique étant en perpétuelle évolution, certains termes peuvent varier entre wikimedia commons et wikipédia. Une mise à jour permanente est nécessaire...
 Le signe (+) renvoie à la classification phylogénétique du groupe considéré.
    └─o EUKARYOTA (+)
      │
@@ -707,8 +800,43 @@
                                        ├─o Phocidae.........................................(Phoques)
                                        ├─o Otariidae........................................(Otaries)
                                        └─o Sirenia..........................................(Lamantin, dugong)
-Un groupe particulier : le plancton
-Le plancton marin a ceci de particulier qu'il ne s'agit pas d'un groupe taxinomique ou phylogénétique, mais représente un regroupement d'organismes très disparates appartenant à de nombreux groupes (animaux, ou zooplancton, végétaux, ou phytoplancton, bactéries, ...) seulement définis par leur vie en milieu aquatique, leur incapacité à nager horizontalement contre les courants (ils se laissent ballotter au gré de ceux-ci mais peuvent effectuer des déplacements verticaux) et leur position à la base de chaînes alimentaires. Le plancton est à opposer au necton et au pleiston.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guide_phylogénétique_illustré_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_de_la_faune_et_de_la_flore_sous-marine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Guides phylogénétiques illustrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Un groupe particulier : le plancton</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plancton marin a ceci de particulier qu'il ne s'agit pas d'un groupe taxinomique ou phylogénétique, mais représente un regroupement d'organismes très disparates appartenant à de nombreux groupes (animaux, ou zooplancton, végétaux, ou phytoplancton, bactéries, ...) seulement définis par leur vie en milieu aquatique, leur incapacité à nager horizontalement contre les courants (ils se laissent ballotter au gré de ceux-ci mais peuvent effectuer des déplacements verticaux) et leur position à la base de chaînes alimentaires. Le plancton est à opposer au necton et au pleiston.
 </t>
         </is>
       </c>
